--- a/classfiers/bottleneck/welm/bloated_welm_tanh_results.xlsx
+++ b/classfiers/bottleneck/welm/bloated_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6210762331838565</v>
+        <v>0.537106135986733</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8291479820627803</v>
+        <v>0.776847290640394</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9313304721030042</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8133640552995391</v>
+        <v>0.6562499999999999</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9267241379310345</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7019151846785227</v>
+        <v>0.553030303030303</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.839366515837104</v>
+        <v>0.5945273631840796</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9440987124463518</v>
+        <v>0.9434980954911861</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7609739942123606</v>
+        <v>0.6235522185683019</v>
       </c>
     </row>
   </sheetData>
